--- a/3_Component_Results/PUBCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1366576124457447</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.775372048323969</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.844561190472676</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.358146233095934</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.364436723157444</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02225262150780251</v>
+        <v>0.100644678693309</v>
       </c>
       <c r="C3">
-        <v>0.2373552216294547</v>
+        <v>0.5870089618847463</v>
       </c>
       <c r="D3">
-        <v>0.25264573550753</v>
+        <v>0.9743935215277069</v>
       </c>
       <c r="E3">
-        <v>0.5026387723878153</v>
+        <v>0.9871137328229745</v>
       </c>
       <c r="F3">
-        <v>0.5071425514295085</v>
+        <v>0.9917406180962824</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.046069851315441</v>
+        <v>0.09787366134911048</v>
       </c>
       <c r="C4">
-        <v>0.3361835295646894</v>
+        <v>0.6307949273637553</v>
       </c>
       <c r="D4">
-        <v>0.2849922527676156</v>
+        <v>1.168272060271323</v>
       </c>
       <c r="E4">
-        <v>0.5338466566043246</v>
+        <v>1.080866347089835</v>
       </c>
       <c r="F4">
-        <v>0.5372547580699161</v>
+        <v>1.087354403430002</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0579046041370605</v>
+        <v>0.08154868731045999</v>
       </c>
       <c r="C5">
-        <v>0.2978524090066111</v>
+        <v>0.713998770293546</v>
       </c>
       <c r="D5">
-        <v>0.2553235116201012</v>
+        <v>1.430771530282745</v>
       </c>
       <c r="E5">
-        <v>0.505295469621588</v>
+        <v>1.196148623826799</v>
       </c>
       <c r="F5">
-        <v>0.5071685669304912</v>
+        <v>1.208190537716507</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0530800310266626</v>
+        <v>0.1341520404658785</v>
       </c>
       <c r="C6">
-        <v>0.3187507368166894</v>
+        <v>0.7691896598824904</v>
       </c>
       <c r="D6">
-        <v>0.2693674700035307</v>
+        <v>1.579558871789514</v>
       </c>
       <c r="E6">
-        <v>0.5190062331066272</v>
+        <v>1.256805025367703</v>
       </c>
       <c r="F6">
-        <v>0.5217482692702891</v>
+        <v>1.270281138917405</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03151207013310486</v>
+        <v>0.1268598637344239</v>
       </c>
       <c r="C7">
-        <v>0.2968165023584622</v>
+        <v>0.7813345819487484</v>
       </c>
       <c r="D7">
-        <v>0.2931063785546492</v>
+        <v>1.592716119073123</v>
       </c>
       <c r="E7">
-        <v>0.5413929982504846</v>
+        <v>1.262028573001865</v>
       </c>
       <c r="F7">
-        <v>0.5475404659795149</v>
+        <v>1.277861748157917</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03520532116778189</v>
+        <v>0.09675479195317427</v>
       </c>
       <c r="C8">
-        <v>0.3576864501186864</v>
+        <v>0.8108202300352334</v>
       </c>
       <c r="D8">
-        <v>0.3701910985459749</v>
+        <v>1.726960037846746</v>
       </c>
       <c r="E8">
-        <v>0.608433314789694</v>
+        <v>1.314138515471922</v>
       </c>
       <c r="F8">
-        <v>0.6155675032359017</v>
+        <v>1.335537356534567</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0951106334970077</v>
+        <v>0.1406368155206148</v>
       </c>
       <c r="C9">
-        <v>0.376317061851638</v>
+        <v>0.8950670472051415</v>
       </c>
       <c r="D9">
-        <v>0.5211196178964023</v>
+        <v>2.222009981461377</v>
       </c>
       <c r="E9">
-        <v>0.72188615300226</v>
+        <v>1.490640795584697</v>
       </c>
       <c r="F9">
-        <v>0.7332647983892382</v>
+        <v>1.524656502007553</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1117016242934887</v>
+        <v>-0.3312026136842777</v>
       </c>
       <c r="C10">
-        <v>0.2702730527220806</v>
+        <v>0.8013776111497077</v>
       </c>
       <c r="D10">
-        <v>0.2194602841100581</v>
+        <v>1.293401115164856</v>
       </c>
       <c r="E10">
-        <v>0.4684658836137996</v>
+        <v>1.137277941035021</v>
       </c>
       <c r="F10">
-        <v>0.4721279518034492</v>
+        <v>1.136360671227658</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2039999999999907</v>
+        <v>0.4641315885571715</v>
       </c>
       <c r="C11">
-        <v>0.4360000000000014</v>
+        <v>0.7592743174351484</v>
       </c>
       <c r="D11">
-        <v>0.4379999999999994</v>
+        <v>1.498317365315948</v>
       </c>
       <c r="E11">
-        <v>0.6618156843109715</v>
+        <v>1.224057745907418</v>
       </c>
       <c r="F11">
-        <v>0.7039034024637215</v>
+        <v>1.266342782296397</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/PUBCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1366576124457447</v>
+        <v>0.07966813408545038</v>
       </c>
       <c r="C2">
-        <v>0.775372048323969</v>
+        <v>0.2904926044902277</v>
       </c>
       <c r="D2">
-        <v>1.844561190472676</v>
+        <v>0.1997595342671157</v>
       </c>
       <c r="E2">
-        <v>1.358146233095934</v>
+        <v>0.4469446657776729</v>
       </c>
       <c r="F2">
-        <v>1.364436723157444</v>
+        <v>0.4440776115544651</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.100644678693309</v>
+        <v>-0.09581970561355245</v>
       </c>
       <c r="C3">
-        <v>0.5870089618847463</v>
+        <v>0.4927854440499702</v>
       </c>
       <c r="D3">
-        <v>0.9743935215277069</v>
+        <v>0.4359434021580401</v>
       </c>
       <c r="E3">
-        <v>0.9871137328229745</v>
+        <v>0.6602601018977597</v>
       </c>
       <c r="F3">
-        <v>0.9917406180962824</v>
+        <v>0.6597705858081699</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09787366134911048</v>
+        <v>0.003072972994658064</v>
       </c>
       <c r="C4">
-        <v>0.6307949273637553</v>
+        <v>0.4851683705022662</v>
       </c>
       <c r="D4">
-        <v>1.168272060271323</v>
+        <v>0.4107751511171511</v>
       </c>
       <c r="E4">
-        <v>1.080866347089835</v>
+        <v>0.6409174292505635</v>
       </c>
       <c r="F4">
-        <v>1.087354403430002</v>
+        <v>0.6474169302588882</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08154868731045999</v>
+        <v>-0.1154007161324104</v>
       </c>
       <c r="C5">
-        <v>0.713998770293546</v>
+        <v>0.479353824850625</v>
       </c>
       <c r="D5">
-        <v>1.430771530282745</v>
+        <v>0.4268500492957792</v>
       </c>
       <c r="E5">
-        <v>1.196148623826799</v>
+        <v>0.6533376227462944</v>
       </c>
       <c r="F5">
-        <v>1.208190537716507</v>
+        <v>0.6497291659572375</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1341520404658785</v>
+        <v>0.002725215881915507</v>
       </c>
       <c r="C6">
-        <v>0.7691896598824904</v>
+        <v>0.4511380015418734</v>
       </c>
       <c r="D6">
-        <v>1.579558871789514</v>
+        <v>0.4051435168807476</v>
       </c>
       <c r="E6">
-        <v>1.256805025367703</v>
+        <v>0.6365088505910563</v>
       </c>
       <c r="F6">
-        <v>1.270281138917405</v>
+        <v>0.6432386857841645</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1268598637344239</v>
+        <v>-0.04206088621362827</v>
       </c>
       <c r="C7">
-        <v>0.7813345819487484</v>
+        <v>0.4214914888921343</v>
       </c>
       <c r="D7">
-        <v>1.592716119073123</v>
+        <v>0.4075230093214146</v>
       </c>
       <c r="E7">
-        <v>1.262028573001865</v>
+        <v>0.6383752887772322</v>
       </c>
       <c r="F7">
-        <v>1.277861748157917</v>
+        <v>0.6453151363098175</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09675479195317427</v>
+        <v>-0.03202104169280565</v>
       </c>
       <c r="C8">
-        <v>0.8108202300352334</v>
+        <v>0.4420571789576535</v>
       </c>
       <c r="D8">
-        <v>1.726960037846746</v>
+        <v>0.4570240603574153</v>
       </c>
       <c r="E8">
-        <v>1.314138515471922</v>
+        <v>0.6760355466670487</v>
       </c>
       <c r="F8">
-        <v>1.335537356534567</v>
+        <v>0.6843412911651034</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1406368155206148</v>
+        <v>-0.1117388779456075</v>
       </c>
       <c r="C9">
-        <v>0.8950670472051415</v>
+        <v>0.4582166133627955</v>
       </c>
       <c r="D9">
-        <v>2.222009981461377</v>
+        <v>0.6029226805016665</v>
       </c>
       <c r="E9">
-        <v>1.490640795584697</v>
+        <v>0.7764809595229406</v>
       </c>
       <c r="F9">
-        <v>1.524656502007553</v>
+        <v>0.7873747258072102</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.3312026136842777</v>
+        <v>0.01972275674151302</v>
       </c>
       <c r="C10">
-        <v>0.8013776111497077</v>
+        <v>0.3574201004013381</v>
       </c>
       <c r="D10">
-        <v>1.293401115164856</v>
+        <v>0.3132652572947969</v>
       </c>
       <c r="E10">
-        <v>1.137277941035021</v>
+        <v>0.5597010427851612</v>
       </c>
       <c r="F10">
-        <v>1.136360671227658</v>
+        <v>0.5804684966114319</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4641315885571715</v>
+        <v>0.2039999999999907</v>
       </c>
       <c r="C11">
-        <v>0.7592743174351484</v>
+        <v>0.4360000000000014</v>
       </c>
       <c r="D11">
-        <v>1.498317365315948</v>
+        <v>0.4379999999999994</v>
       </c>
       <c r="E11">
-        <v>1.224057745907418</v>
+        <v>0.6618156843109715</v>
       </c>
       <c r="F11">
-        <v>1.266342782296397</v>
+        <v>0.7039034024637215</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/PUBCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.07966813408545038</v>
+        <v>0.1604947413933812</v>
       </c>
       <c r="C2">
-        <v>0.2904926044902277</v>
+        <v>0.671979494075615</v>
       </c>
       <c r="D2">
-        <v>0.1997595342671157</v>
+        <v>0.9800629839820976</v>
       </c>
       <c r="E2">
-        <v>0.4469446657776729</v>
+        <v>0.9899813048649442</v>
       </c>
       <c r="F2">
-        <v>0.4440776115544651</v>
+        <v>0.9866055495518523</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.09581970561355245</v>
+        <v>-0.01688632295344274</v>
       </c>
       <c r="C3">
-        <v>0.4927854440499702</v>
+        <v>0.678798267575447</v>
       </c>
       <c r="D3">
-        <v>0.4359434021580401</v>
+        <v>1.154921742939148</v>
       </c>
       <c r="E3">
-        <v>0.6602601018977597</v>
+        <v>1.074672853913761</v>
       </c>
       <c r="F3">
-        <v>0.6597705858081699</v>
+        <v>1.085449495453315</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.003072972994658064</v>
+        <v>0.09175790792555</v>
       </c>
       <c r="C4">
-        <v>0.4851683705022662</v>
+        <v>0.6751575700206842</v>
       </c>
       <c r="D4">
-        <v>0.4107751511171511</v>
+        <v>1.246489116971403</v>
       </c>
       <c r="E4">
-        <v>0.6409174292505635</v>
+        <v>1.11646277007852</v>
       </c>
       <c r="F4">
-        <v>0.6474169302588882</v>
+        <v>1.124216491624296</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1154007161324104</v>
+        <v>-0.03150304691393851</v>
       </c>
       <c r="C5">
-        <v>0.479353824850625</v>
+        <v>0.6526513673133957</v>
       </c>
       <c r="D5">
-        <v>0.4268500492957792</v>
+        <v>1.099963246005613</v>
       </c>
       <c r="E5">
-        <v>0.6533376227462944</v>
+        <v>1.04879132624446</v>
       </c>
       <c r="F5">
-        <v>0.6497291659572375</v>
+        <v>1.059411705416517</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.002725215881915507</v>
+        <v>0.09092125959470221</v>
       </c>
       <c r="C6">
-        <v>0.4511380015418734</v>
+        <v>0.6433332090867682</v>
       </c>
       <c r="D6">
-        <v>0.4051435168807476</v>
+        <v>1.118209597697466</v>
       </c>
       <c r="E6">
-        <v>0.6365088505910563</v>
+        <v>1.057454300524361</v>
       </c>
       <c r="F6">
-        <v>0.6432386857841645</v>
+        <v>1.06492822115538</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04206088621362827</v>
+        <v>0.06426616516546159</v>
       </c>
       <c r="C7">
-        <v>0.4214914888921343</v>
+        <v>0.6673738110489854</v>
       </c>
       <c r="D7">
-        <v>0.4075230093214146</v>
+        <v>1.263617861539698</v>
       </c>
       <c r="E7">
-        <v>0.6383752887772322</v>
+        <v>1.124107584504125</v>
       </c>
       <c r="F7">
-        <v>0.6453151363098175</v>
+        <v>1.137333693445019</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03202104169280565</v>
+        <v>0.07636997984574115</v>
       </c>
       <c r="C8">
-        <v>0.4420571789576535</v>
+        <v>0.6282867277610423</v>
       </c>
       <c r="D8">
-        <v>0.4570240603574153</v>
+        <v>1.249410503617163</v>
       </c>
       <c r="E8">
-        <v>0.6760355466670487</v>
+        <v>1.117770326863781</v>
       </c>
       <c r="F8">
-        <v>0.6843412911651034</v>
+        <v>1.130540563949073</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1117388779456075</v>
+        <v>-0.1896082154670432</v>
       </c>
       <c r="C9">
-        <v>0.4582166133627955</v>
+        <v>0.6391424148142104</v>
       </c>
       <c r="D9">
-        <v>0.6029226805016665</v>
+        <v>0.8611962251771343</v>
       </c>
       <c r="E9">
-        <v>0.7764809595229406</v>
+        <v>0.9280065868177523</v>
       </c>
       <c r="F9">
-        <v>0.7873747258072102</v>
+        <v>0.9320294493904645</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01972275674151302</v>
+        <v>0.02217556234913506</v>
       </c>
       <c r="C10">
-        <v>0.3574201004013381</v>
+        <v>0.5877922150015374</v>
       </c>
       <c r="D10">
-        <v>0.3132652572947969</v>
+        <v>0.7922902390694693</v>
       </c>
       <c r="E10">
-        <v>0.5597010427851612</v>
+        <v>0.8901068694653858</v>
       </c>
       <c r="F10">
-        <v>0.5804684966114319</v>
+        <v>0.926165044936718</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2039999999999907</v>
+        <v>-0.0636988451256798</v>
       </c>
       <c r="C11">
-        <v>0.4360000000000014</v>
+        <v>0.3782091602451033</v>
       </c>
       <c r="D11">
-        <v>0.4379999999999994</v>
+        <v>0.2022309754915021</v>
       </c>
       <c r="E11">
-        <v>0.6618156843109715</v>
+        <v>0.4497009845347262</v>
       </c>
       <c r="F11">
-        <v>0.7039034024637215</v>
+        <v>0.4977115537903916</v>
       </c>
       <c r="G11">
         <v>5</v>
